--- a/biology/Biochimie/James_Collip/James_Collip.xlsx
+++ b/biology/Biochimie/James_Collip/James_Collip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Bertram Collip (20 novembre 1892, Belleville, Ontario - 19 juin 1965, Londres, Royaume-Uni) était un scientifique canadien. Il doit sa notoriété à son appartenance au groupe qui isola l’insuline.
 Il occupa la présidence du département de biochimie de l’université McGill de 1928 à 1941, puis la charge de doyen du département de médecine à l’Université Western Ontario de 1947 à 1961, période durant laquelle il est membre honoraire de la fraternité Kappa Alpha.
@@ -512,7 +524,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 15 ans, il intègre le Trinity College de l’université de Toronto où il étudie la physiologie et la biochimie. Il acquit son diplôme de Ph. D. en 1916.
 </t>
@@ -543,7 +557,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1915, alors qu’il a 22 ans et vient d’achever son doctorat, Collip accepte un poste d’enseignant à Edmonton au sein du département de physiologie de l’université d'Alberta. Il occupa ce poste durant sept ans. Son travail se concentrait principalement sur l’analyse chimique du sang des vertébrés et invertébrés.
 À partir d’avril 1921, il prit un repos sabbatique de six mois grâce à une bourse de la Fondation Rockefeller, voyageant au côté du professeur John James Rickard Macleod. Son programme de recherche portant sur les effets du pH sur la concentration de sucre dans le sang le conduisit dans des stations biologiques marines de Woods Hole (Massachusetts) et St. Andrews (Nouveau-Brunswick).
@@ -576,7 +592,9 @@
           <t>Le triomphe de l’insuline</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mois suivant, il parvint à élaborer une préparation assez pure pour servir dans des essais médicaux à destination du jeune  Leonard Thompson. Les essais cliniques furent un succès, assurant l’avenir de l’hormone. Banting, Best et Collip se partagèrent le brevetage, qu’ils léguèrent à l’université de Toronto pour la somme symbolique d’un dollar.
 Les désaccords entre les chercheurs semèrent vite la discorde. Le prix Nobel de physiologie ou médecine de 1923 fut décerné à Banting et à MacLeod. Banting partagea le prix avec Best, tandis que Macleod fit honneur à Collip. Malgré ce geste, Collip et Best furent peu à peu oubliés pour leurs rôles dans la découverte de l’insuline.
@@ -610,7 +628,9 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Membre de la Société royale du Canada en 1925
 Membre de la Royal Society en 1933
